--- a/stock/data/HD현대중공업.xlsx
+++ b/stock/data/HD현대중공업.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G623"/>
+  <dimension ref="A1:G656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14774,10 +14774,769 @@
         <v>118000</v>
       </c>
       <c r="F623" t="n">
-        <v>162825</v>
+        <v>163448</v>
       </c>
       <c r="G623" t="n">
         <v>-0.5897219882055602</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B624" t="n">
+        <v>119000</v>
+      </c>
+      <c r="C624" t="n">
+        <v>122000</v>
+      </c>
+      <c r="D624" t="n">
+        <v>115900</v>
+      </c>
+      <c r="E624" t="n">
+        <v>121300</v>
+      </c>
+      <c r="F624" t="n">
+        <v>126161</v>
+      </c>
+      <c r="G624" t="n">
+        <v>2.796610169491526</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B625" t="n">
+        <v>120500</v>
+      </c>
+      <c r="C625" t="n">
+        <v>125400</v>
+      </c>
+      <c r="D625" t="n">
+        <v>118800</v>
+      </c>
+      <c r="E625" t="n">
+        <v>124900</v>
+      </c>
+      <c r="F625" t="n">
+        <v>196046</v>
+      </c>
+      <c r="G625" t="n">
+        <v>2.967848309975268</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B626" t="n">
+        <v>124000</v>
+      </c>
+      <c r="C626" t="n">
+        <v>125900</v>
+      </c>
+      <c r="D626" t="n">
+        <v>122100</v>
+      </c>
+      <c r="E626" t="n">
+        <v>122700</v>
+      </c>
+      <c r="F626" t="n">
+        <v>134514</v>
+      </c>
+      <c r="G626" t="n">
+        <v>-1.761409127301842</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B627" t="n">
+        <v>122700</v>
+      </c>
+      <c r="C627" t="n">
+        <v>123500</v>
+      </c>
+      <c r="D627" t="n">
+        <v>119800</v>
+      </c>
+      <c r="E627" t="n">
+        <v>121700</v>
+      </c>
+      <c r="F627" t="n">
+        <v>130736</v>
+      </c>
+      <c r="G627" t="n">
+        <v>-0.8149959250203749</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B628" t="n">
+        <v>120100</v>
+      </c>
+      <c r="C628" t="n">
+        <v>123900</v>
+      </c>
+      <c r="D628" t="n">
+        <v>119200</v>
+      </c>
+      <c r="E628" t="n">
+        <v>122100</v>
+      </c>
+      <c r="F628" t="n">
+        <v>72585</v>
+      </c>
+      <c r="G628" t="n">
+        <v>0.3286770747740345</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B629" t="n">
+        <v>121600</v>
+      </c>
+      <c r="C629" t="n">
+        <v>121600</v>
+      </c>
+      <c r="D629" t="n">
+        <v>118000</v>
+      </c>
+      <c r="E629" t="n">
+        <v>118500</v>
+      </c>
+      <c r="F629" t="n">
+        <v>102944</v>
+      </c>
+      <c r="G629" t="n">
+        <v>-2.948402948402948</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B630" t="n">
+        <v>118500</v>
+      </c>
+      <c r="C630" t="n">
+        <v>121100</v>
+      </c>
+      <c r="D630" t="n">
+        <v>116700</v>
+      </c>
+      <c r="E630" t="n">
+        <v>117200</v>
+      </c>
+      <c r="F630" t="n">
+        <v>171743</v>
+      </c>
+      <c r="G630" t="n">
+        <v>-1.09704641350211</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B631" t="n">
+        <v>115600</v>
+      </c>
+      <c r="C631" t="n">
+        <v>117100</v>
+      </c>
+      <c r="D631" t="n">
+        <v>113400</v>
+      </c>
+      <c r="E631" t="n">
+        <v>114500</v>
+      </c>
+      <c r="F631" t="n">
+        <v>153613</v>
+      </c>
+      <c r="G631" t="n">
+        <v>-2.303754266211604</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B632" t="n">
+        <v>114800</v>
+      </c>
+      <c r="C632" t="n">
+        <v>118700</v>
+      </c>
+      <c r="D632" t="n">
+        <v>112900</v>
+      </c>
+      <c r="E632" t="n">
+        <v>117900</v>
+      </c>
+      <c r="F632" t="n">
+        <v>144841</v>
+      </c>
+      <c r="G632" t="n">
+        <v>2.96943231441048</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B633" t="n">
+        <v>117400</v>
+      </c>
+      <c r="C633" t="n">
+        <v>119500</v>
+      </c>
+      <c r="D633" t="n">
+        <v>116000</v>
+      </c>
+      <c r="E633" t="n">
+        <v>118300</v>
+      </c>
+      <c r="F633" t="n">
+        <v>79090</v>
+      </c>
+      <c r="G633" t="n">
+        <v>0.3392705682782018</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B634" t="n">
+        <v>116900</v>
+      </c>
+      <c r="C634" t="n">
+        <v>118100</v>
+      </c>
+      <c r="D634" t="n">
+        <v>110800</v>
+      </c>
+      <c r="E634" t="n">
+        <v>112000</v>
+      </c>
+      <c r="F634" t="n">
+        <v>192752</v>
+      </c>
+      <c r="G634" t="n">
+        <v>-5.325443786982249</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B635" t="n">
+        <v>112800</v>
+      </c>
+      <c r="C635" t="n">
+        <v>114100</v>
+      </c>
+      <c r="D635" t="n">
+        <v>111200</v>
+      </c>
+      <c r="E635" t="n">
+        <v>111300</v>
+      </c>
+      <c r="F635" t="n">
+        <v>138965</v>
+      </c>
+      <c r="G635" t="n">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B636" t="n">
+        <v>112900</v>
+      </c>
+      <c r="C636" t="n">
+        <v>123600</v>
+      </c>
+      <c r="D636" t="n">
+        <v>112500</v>
+      </c>
+      <c r="E636" t="n">
+        <v>120300</v>
+      </c>
+      <c r="F636" t="n">
+        <v>408383</v>
+      </c>
+      <c r="G636" t="n">
+        <v>8.086253369272237</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B637" t="n">
+        <v>120400</v>
+      </c>
+      <c r="C637" t="n">
+        <v>123700</v>
+      </c>
+      <c r="D637" t="n">
+        <v>117500</v>
+      </c>
+      <c r="E637" t="n">
+        <v>123400</v>
+      </c>
+      <c r="F637" t="n">
+        <v>272435</v>
+      </c>
+      <c r="G637" t="n">
+        <v>2.57689110556941</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B638" t="n">
+        <v>124800</v>
+      </c>
+      <c r="C638" t="n">
+        <v>125900</v>
+      </c>
+      <c r="D638" t="n">
+        <v>121400</v>
+      </c>
+      <c r="E638" t="n">
+        <v>122600</v>
+      </c>
+      <c r="F638" t="n">
+        <v>162296</v>
+      </c>
+      <c r="G638" t="n">
+        <v>-0.6482982171799028</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B639" t="n">
+        <v>123800</v>
+      </c>
+      <c r="C639" t="n">
+        <v>129200</v>
+      </c>
+      <c r="D639" t="n">
+        <v>122700</v>
+      </c>
+      <c r="E639" t="n">
+        <v>127200</v>
+      </c>
+      <c r="F639" t="n">
+        <v>383255</v>
+      </c>
+      <c r="G639" t="n">
+        <v>3.752039151712887</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B640" t="n">
+        <v>128400</v>
+      </c>
+      <c r="C640" t="n">
+        <v>133700</v>
+      </c>
+      <c r="D640" t="n">
+        <v>127800</v>
+      </c>
+      <c r="E640" t="n">
+        <v>130200</v>
+      </c>
+      <c r="F640" t="n">
+        <v>458832</v>
+      </c>
+      <c r="G640" t="n">
+        <v>2.358490566037736</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B641" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C641" t="n">
+        <v>132800</v>
+      </c>
+      <c r="D641" t="n">
+        <v>125700</v>
+      </c>
+      <c r="E641" t="n">
+        <v>128000</v>
+      </c>
+      <c r="F641" t="n">
+        <v>273570</v>
+      </c>
+      <c r="G641" t="n">
+        <v>-1.689708141321045</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B642" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C642" t="n">
+        <v>140600</v>
+      </c>
+      <c r="D642" t="n">
+        <v>129700</v>
+      </c>
+      <c r="E642" t="n">
+        <v>139500</v>
+      </c>
+      <c r="F642" t="n">
+        <v>677728</v>
+      </c>
+      <c r="G642" t="n">
+        <v>8.984375</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B643" t="n">
+        <v>140400</v>
+      </c>
+      <c r="C643" t="n">
+        <v>140900</v>
+      </c>
+      <c r="D643" t="n">
+        <v>137300</v>
+      </c>
+      <c r="E643" t="n">
+        <v>140800</v>
+      </c>
+      <c r="F643" t="n">
+        <v>262260</v>
+      </c>
+      <c r="G643" t="n">
+        <v>0.9318996415770611</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B644" t="n">
+        <v>139300</v>
+      </c>
+      <c r="C644" t="n">
+        <v>141800</v>
+      </c>
+      <c r="D644" t="n">
+        <v>136800</v>
+      </c>
+      <c r="E644" t="n">
+        <v>137700</v>
+      </c>
+      <c r="F644" t="n">
+        <v>152022</v>
+      </c>
+      <c r="G644" t="n">
+        <v>-2.201704545454545</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B645" t="n">
+        <v>137000</v>
+      </c>
+      <c r="C645" t="n">
+        <v>139400</v>
+      </c>
+      <c r="D645" t="n">
+        <v>135300</v>
+      </c>
+      <c r="E645" t="n">
+        <v>136200</v>
+      </c>
+      <c r="F645" t="n">
+        <v>96389</v>
+      </c>
+      <c r="G645" t="n">
+        <v>-1.089324618736383</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B646" t="n">
+        <v>136500</v>
+      </c>
+      <c r="C646" t="n">
+        <v>137000</v>
+      </c>
+      <c r="D646" t="n">
+        <v>133500</v>
+      </c>
+      <c r="E646" t="n">
+        <v>133600</v>
+      </c>
+      <c r="F646" t="n">
+        <v>122129</v>
+      </c>
+      <c r="G646" t="n">
+        <v>-1.908957415565345</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B647" t="n">
+        <v>134700</v>
+      </c>
+      <c r="C647" t="n">
+        <v>140000</v>
+      </c>
+      <c r="D647" t="n">
+        <v>133100</v>
+      </c>
+      <c r="E647" t="n">
+        <v>140000</v>
+      </c>
+      <c r="F647" t="n">
+        <v>213717</v>
+      </c>
+      <c r="G647" t="n">
+        <v>4.790419161676647</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B648" t="n">
+        <v>139400</v>
+      </c>
+      <c r="C648" t="n">
+        <v>141200</v>
+      </c>
+      <c r="D648" t="n">
+        <v>135600</v>
+      </c>
+      <c r="E648" t="n">
+        <v>137400</v>
+      </c>
+      <c r="F648" t="n">
+        <v>181533</v>
+      </c>
+      <c r="G648" t="n">
+        <v>-1.857142857142857</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B649" t="n">
+        <v>137600</v>
+      </c>
+      <c r="C649" t="n">
+        <v>138800</v>
+      </c>
+      <c r="D649" t="n">
+        <v>134300</v>
+      </c>
+      <c r="E649" t="n">
+        <v>135500</v>
+      </c>
+      <c r="F649" t="n">
+        <v>223027</v>
+      </c>
+      <c r="G649" t="n">
+        <v>-1.382823871906841</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B650" t="n">
+        <v>137000</v>
+      </c>
+      <c r="C650" t="n">
+        <v>137800</v>
+      </c>
+      <c r="D650" t="n">
+        <v>135000</v>
+      </c>
+      <c r="E650" t="n">
+        <v>136300</v>
+      </c>
+      <c r="F650" t="n">
+        <v>87286</v>
+      </c>
+      <c r="G650" t="n">
+        <v>0.5904059040590406</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B651" t="n">
+        <v>138400</v>
+      </c>
+      <c r="C651" t="n">
+        <v>146000</v>
+      </c>
+      <c r="D651" t="n">
+        <v>137200</v>
+      </c>
+      <c r="E651" t="n">
+        <v>143500</v>
+      </c>
+      <c r="F651" t="n">
+        <v>358025</v>
+      </c>
+      <c r="G651" t="n">
+        <v>5.282465150403522</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B652" t="n">
+        <v>143800</v>
+      </c>
+      <c r="C652" t="n">
+        <v>144800</v>
+      </c>
+      <c r="D652" t="n">
+        <v>140200</v>
+      </c>
+      <c r="E652" t="n">
+        <v>142300</v>
+      </c>
+      <c r="F652" t="n">
+        <v>154449</v>
+      </c>
+      <c r="G652" t="n">
+        <v>-0.8362369337979094</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B653" t="n">
+        <v>143700</v>
+      </c>
+      <c r="C653" t="n">
+        <v>143700</v>
+      </c>
+      <c r="D653" t="n">
+        <v>138800</v>
+      </c>
+      <c r="E653" t="n">
+        <v>140500</v>
+      </c>
+      <c r="F653" t="n">
+        <v>166809</v>
+      </c>
+      <c r="G653" t="n">
+        <v>-1.264933239634575</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B654" t="n">
+        <v>131100</v>
+      </c>
+      <c r="C654" t="n">
+        <v>133200</v>
+      </c>
+      <c r="D654" t="n">
+        <v>129100</v>
+      </c>
+      <c r="E654" t="n">
+        <v>130200</v>
+      </c>
+      <c r="F654" t="n">
+        <v>3652485</v>
+      </c>
+      <c r="G654" t="n">
+        <v>-7.330960854092526</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B655" t="n">
+        <v>131300</v>
+      </c>
+      <c r="C655" t="n">
+        <v>131500</v>
+      </c>
+      <c r="D655" t="n">
+        <v>127200</v>
+      </c>
+      <c r="E655" t="n">
+        <v>128100</v>
+      </c>
+      <c r="F655" t="n">
+        <v>452194</v>
+      </c>
+      <c r="G655" t="n">
+        <v>-1.612903225806452</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B656" t="n">
+        <v>127800</v>
+      </c>
+      <c r="C656" t="n">
+        <v>132000</v>
+      </c>
+      <c r="D656" t="n">
+        <v>126800</v>
+      </c>
+      <c r="E656" t="n">
+        <v>130800</v>
+      </c>
+      <c r="F656" t="n">
+        <v>588473</v>
+      </c>
+      <c r="G656" t="n">
+        <v>2.107728337236534</v>
       </c>
     </row>
   </sheetData>
